--- a/LOG/Robot.xlsx
+++ b/LOG/Robot.xlsx
@@ -1,87 +1,62 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Robot1" sheetId="1" r:id="rId1"/>
+    <sheet name="Robot1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
-  <si>
-    <t>Name_robot</t>
-  </si>
-  <si>
-    <t>Status_creation</t>
-  </si>
-  <si>
-    <t>Status_pdf</t>
-  </si>
-  <si>
-    <t>Path_pdf</t>
-  </si>
-  <si>
-    <t>Status_final</t>
-  </si>
-  <si>
-    <t>ABC8273</t>
-  </si>
-  <si>
-    <t>ABC82763</t>
-  </si>
-  <si>
-    <t>ABC82673</t>
-  </si>
-  <si>
-    <t>DONE</t>
-  </si>
-  <si>
-    <t>WIP</t>
-  </si>
-  <si>
-    <t>/users/Ali</t>
-  </si>
-  <si>
-    <t>/users/Jorge</t>
-  </si>
-  <si>
-    <t>/users/Alex</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ADD8E6"/>
+        <bgColor rgb="00ADD8E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0000FF00"/>
+        <bgColor rgb="0000FF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -111,17 +86,89 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -409,88 +456,125 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Name_robot</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Status_creation</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Status_pdf</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Path_pdf</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Status_final</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ABC8273</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>DONE</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>DONE</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>/users/Ali</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>DONE</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>8</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ABC82763</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>DONE</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>DONE</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>/users/Jorge</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>DONE</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>9</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ABC82673</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>WIP</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>WIP</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>/users/Alex</t>
+        </is>
+      </c>
+      <c r="E4" s="4" t="inlineStr">
+        <is>
+          <t>WIP</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/LOG/Robot.xlsx
+++ b/LOG/Robot.xlsx
@@ -33,7 +33,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill/>
     </fill>
@@ -56,6 +56,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="00FFFF00"/>
         <bgColor rgb="00FFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF0000"/>
+        <bgColor rgb="00FF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -86,7 +92,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -96,6 +102,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -461,7 +468,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -577,6 +584,33 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AHJD77</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>users/Pedro</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LOG/Robot.xlsx
+++ b/LOG/Robot.xlsx
@@ -33,7 +33,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
@@ -44,24 +44,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="00ADD8E6"/>
         <bgColor rgb="00ADD8E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0000FF00"/>
-        <bgColor rgb="0000FF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFF00"/>
-        <bgColor rgb="00FFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FF0000"/>
-        <bgColor rgb="00FF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -92,7 +74,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -100,9 +82,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -506,108 +485,108 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ABC8273</t>
-        </is>
-      </c>
-      <c r="B2" s="3" t="inlineStr">
-        <is>
-          <t>DONE</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>DONE</t>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>/users/Ali</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>DONE</t>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ABC82763</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>DONE</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>DONE</t>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>/users/Jorge</t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="inlineStr">
-        <is>
-          <t>DONE</t>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ABC82673</t>
-        </is>
-      </c>
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t>WIP</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t>WIP</t>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>/users/Alex</t>
-        </is>
-      </c>
-      <c r="E4" s="4" t="inlineStr">
-        <is>
-          <t>WIP</t>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AHJD77</t>
-        </is>
-      </c>
-      <c r="B5" s="5" t="inlineStr">
-        <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-      <c r="C5" s="5" t="inlineStr">
-        <is>
-          <t>FAIL</t>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>users/Pedro</t>
-        </is>
-      </c>
-      <c r="E5" s="5" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>

--- a/LOG/Robot.xlsx
+++ b/LOG/Robot.xlsx
@@ -447,7 +447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,114 +482,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LOG/Robot.xlsx
+++ b/LOG/Robot.xlsx
@@ -1,50 +1,87 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Robot1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Robot1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
+  <si>
+    <t>Name_robot</t>
+  </si>
+  <si>
+    <t>Status_creation</t>
+  </si>
+  <si>
+    <t>Status_pdf</t>
+  </si>
+  <si>
+    <t>Path_pdf</t>
+  </si>
+  <si>
+    <t>Status_final</t>
+  </si>
+  <si>
+    <t>AFF665</t>
+  </si>
+  <si>
+    <t>Acc665</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>WIP</t>
+  </si>
+  <si>
+    <t>DONE</t>
+  </si>
+  <si>
+    <t>/users/admin</t>
+  </si>
+  <si>
+    <t>/users/ali</t>
+  </si>
+  <si>
+    <t>wip</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ADD8E6"/>
-        <bgColor rgb="00ADD8E6"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -74,87 +111,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -442,44 +409,96 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Name_robot</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>Status_creation</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>Status_pdf</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>Path_pdf</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>Status_final</t>
-        </is>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/LOG/Robot.xlsx
+++ b/LOG/Robot.xlsx
@@ -1,87 +1,68 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Robot1" sheetId="1" r:id="rId1"/>
+    <sheet name="Robot1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
-  <si>
-    <t>Name_robot</t>
-  </si>
-  <si>
-    <t>Status_creation</t>
-  </si>
-  <si>
-    <t>Status_pdf</t>
-  </si>
-  <si>
-    <t>Path_pdf</t>
-  </si>
-  <si>
-    <t>Status_final</t>
-  </si>
-  <si>
-    <t>AFF665</t>
-  </si>
-  <si>
-    <t>Acc665</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>WIP</t>
-  </si>
-  <si>
-    <t>DONE</t>
-  </si>
-  <si>
-    <t>/users/admin</t>
-  </si>
-  <si>
-    <t>/users/ali</t>
-  </si>
-  <si>
-    <t>wip</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ADD8E6"/>
+        <bgColor rgb="00ADD8E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF0000"/>
+        <bgColor rgb="00FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0000FF00"/>
+        <bgColor rgb="0000FF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -111,17 +92,90 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -409,96 +463,98 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Name_robot</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Status_creation</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Status_pdf</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Path_pdf</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Status_final</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>AFF665</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>DONE</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>/users/admin</t>
+        </is>
+      </c>
+      <c r="E2" s="5" t="inlineStr">
+        <is>
+          <t>wip</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Acc665</t>
+        </is>
+      </c>
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>WIP</t>
+        </is>
+      </c>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>WIP</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>/users/ali</t>
+        </is>
+      </c>
+      <c r="E3" s="5" t="inlineStr">
+        <is>
+          <t>WIP</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/LOG/Robot.xlsx
+++ b/LOG/Robot.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Robot1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Robot1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/LOG/Robot.xlsx
+++ b/LOG/Robot.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Robot1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Robot1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/LOG/Robot.xlsx
+++ b/LOG/Robot.xlsx
@@ -6,7 +6,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Robot1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Robots" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -33,7 +33,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -48,20 +48,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FF0000"/>
-        <bgColor rgb="00FF0000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="0000FF00"/>
         <bgColor rgb="0000FF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFF00"/>
-        <bgColor rgb="00FFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -92,7 +80,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -101,8 +89,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -468,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,54 +492,81 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AFF665</t>
+          <t>Robot_1</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>Fail</t>
-        </is>
-      </c>
-      <c r="C2" s="4" t="inlineStr">
+          <t>DONE</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
         <is>
           <t>DONE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>/users/admin</t>
-        </is>
-      </c>
-      <c r="E2" s="5" t="inlineStr">
-        <is>
-          <t>wip</t>
+          <t>C:\Users\nasudre\Desktop\Robot\LOG\Robot_1.pdf</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>DONE</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Acc665</t>
-        </is>
-      </c>
-      <c r="B3" s="5" t="inlineStr">
-        <is>
-          <t>WIP</t>
-        </is>
-      </c>
-      <c r="C3" s="5" t="inlineStr">
-        <is>
-          <t>WIP</t>
+          <t>Robot_2</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>DONE</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>DONE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>/users/ali</t>
-        </is>
-      </c>
-      <c r="E3" s="5" t="inlineStr">
-        <is>
-          <t>WIP</t>
+          <t>C:\Users\nasudre\Desktop\Robot\LOG\Robot_2.pdf</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>DONE</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Robot_3</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>DONE</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>DONE</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>C:\Users\nasudre\Desktop\Robot\LOG\Robot_3.pdf</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>DONE</t>
         </is>
       </c>
     </row>

--- a/LOG/Robot.xlsx
+++ b/LOG/Robot.xlsx
@@ -454,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,60 +516,6 @@
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Robot_2</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>DONE</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>DONE</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>C:\Users\nasudre\Desktop\Robot\LOG\Robot_2.pdf</t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="inlineStr">
-        <is>
-          <t>DONE</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Robot_3</t>
-        </is>
-      </c>
-      <c r="B4" s="3" t="inlineStr">
-        <is>
-          <t>DONE</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="inlineStr">
-        <is>
-          <t>DONE</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>C:\Users\nasudre\Desktop\Robot\LOG\Robot_3.pdf</t>
-        </is>
-      </c>
-      <c r="E4" s="3" t="inlineStr">
-        <is>
-          <t>DONE</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LOG/Robot.xlsx
+++ b/LOG/Robot.xlsx
@@ -48,8 +48,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0000FF00"/>
-        <bgColor rgb="0000FF00"/>
+        <fgColor rgb="00FF0000"/>
+        <bgColor rgb="00FF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -497,22 +497,17 @@
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>DONE</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>DONE</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>C:\Users\nasudre\Desktop\Robot\LOG\Robot_1.pdf</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>DONE</t>
+          <t>FAIL</t>
         </is>
       </c>
     </row>

--- a/LOG/Robot.xlsx
+++ b/LOG/Robot.xlsx
@@ -48,8 +48,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FF0000"/>
-        <bgColor rgb="00FF0000"/>
+        <fgColor rgb="0000FF00"/>
+        <bgColor rgb="0000FF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -454,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,17 +497,49 @@
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>DONE</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>DONE</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>C:\Users\nasudre\Desktop\Robot\LOG\Robot_1.pdf</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>DONE</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Robot_2</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>DONE</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>DONE</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>C:\Users\nasudre\Desktop\Robot\LOG\Robot_2.pdf</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>DONE</t>
         </is>
       </c>
     </row>

--- a/LOG/Robot.xlsx
+++ b/LOG/Robot.xlsx
@@ -454,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,33 +516,6 @@
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Robot_2</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>DONE</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>DONE</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>C:\Users\nasudre\Desktop\Robot\LOG\Robot_2.pdf</t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="inlineStr">
-        <is>
-          <t>DONE</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LOG/Robot.xlsx
+++ b/LOG/Robot.xlsx
@@ -454,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,25 +492,106 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Robot_Sel_1</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>DONE</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>DONE</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>C:\Users\nasudre\Desktop\Robot\LOG\Robot_Sel_1.pdf</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>DONE</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Robot_Sel_2</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>DONE</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>DONE</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>C:\Users\nasudre\Desktop\Robot\LOG\Robot_Sel_2.pdf</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>DONE</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>Robot_1</t>
         </is>
       </c>
-      <c r="B2" s="3" t="inlineStr">
-        <is>
-          <t>DONE</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>DONE</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>DONE</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>DONE</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>C:\Users\nasudre\Desktop\Robot\LOG\Robot_1.pdf</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>DONE</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Robot_2</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>DONE</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>DONE</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>C:\Users\nasudre\Desktop\Robot\LOG\Robot_2.pdf</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
         <is>
           <t>DONE</t>
         </is>

--- a/LOG/Robot.xlsx
+++ b/LOG/Robot.xlsx
@@ -33,7 +33,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -44,6 +44,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="00ADD8E6"/>
         <bgColor rgb="00ADD8E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF0000"/>
+        <bgColor rgb="00FF0000"/>
       </patternFill>
     </fill>
     <fill>
@@ -80,7 +86,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -89,6 +95,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -492,79 +499,79 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Robot_Sel_1</t>
+          <t>Robot_1</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>DONE</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>DONE</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>C:\Users\nasudre\Desktop\Robot\LOG\Robot_Sel_1.pdf</t>
+          <t>None</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>DONE</t>
+          <t>FAIL</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Robot_Sel_2</t>
+          <t>Robot_2</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>DONE</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>DONE</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>C:\Users\nasudre\Desktop\Robot\LOG\Robot_Sel_2.pdf</t>
+          <t>None</t>
         </is>
       </c>
       <c r="E3" s="3" t="inlineStr">
         <is>
-          <t>DONE</t>
+          <t>FAIL</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Robot_1</t>
-        </is>
-      </c>
-      <c r="B4" s="3" t="inlineStr">
+          <t>Robot_Sel_1</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
         <is>
           <t>DONE</t>
         </is>
       </c>
-      <c r="C4" s="3" t="inlineStr">
+      <c r="C4" s="4" t="inlineStr">
         <is>
           <t>DONE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>C:\Users\nasudre\Desktop\Robot\LOG\Robot_1.pdf</t>
-        </is>
-      </c>
-      <c r="E4" s="3" t="inlineStr">
+          <t>C:\Users\nasudre\Desktop\Robot\LOG\Robot_Sel_1.pdf</t>
+        </is>
+      </c>
+      <c r="E4" s="4" t="inlineStr">
         <is>
           <t>DONE</t>
         </is>
@@ -573,25 +580,25 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Robot_2</t>
-        </is>
-      </c>
-      <c r="B5" s="3" t="inlineStr">
+          <t>Robot_Sel_2</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
         <is>
           <t>DONE</t>
         </is>
       </c>
-      <c r="C5" s="3" t="inlineStr">
+      <c r="C5" s="4" t="inlineStr">
         <is>
           <t>DONE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>C:\Users\nasudre\Desktop\Robot\LOG\Robot_2.pdf</t>
-        </is>
-      </c>
-      <c r="E5" s="3" t="inlineStr">
+          <t>C:\Users\nasudre\Desktop\Robot\LOG\Robot_Sel_2.pdf</t>
+        </is>
+      </c>
+      <c r="E5" s="4" t="inlineStr">
         <is>
           <t>DONE</t>
         </is>

--- a/LOG/Robot.xlsx
+++ b/LOG/Robot.xlsx
@@ -48,14 +48,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FF0000"/>
-        <bgColor rgb="00FF0000"/>
+        <fgColor rgb="0000FF00"/>
+        <bgColor rgb="0000FF00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0000FF00"/>
-        <bgColor rgb="0000FF00"/>
+        <fgColor rgb="00FF0000"/>
+        <bgColor rgb="00FF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -499,79 +499,79 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Robot_1</t>
+          <t>Robot_Sel_1</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>DONE</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>DONE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>C:\Users\nasudre\Desktop\Robot\LOG\Robot_Sel_1.pdf</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>DONE</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Robot_2</t>
+          <t>Robot_Sel_2</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>DONE</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>DONE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>C:\Users\nasudre\Desktop\Robot\LOG\Robot_Sel_2.pdf</t>
         </is>
       </c>
       <c r="E3" s="3" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>DONE</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Robot_Sel_1</t>
-        </is>
-      </c>
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t>DONE</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="inlineStr">
+          <t>Robot_1</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>DONE</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
         <is>
           <t>DONE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>C:\Users\nasudre\Desktop\Robot\LOG\Robot_Sel_1.pdf</t>
-        </is>
-      </c>
-      <c r="E4" s="4" t="inlineStr">
+          <t>C:\Users\nasudre\Desktop\Robot\LOG\Robot_1.pdf</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
         <is>
           <t>DONE</t>
         </is>
@@ -580,27 +580,27 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Robot_Sel_2</t>
+          <t>Robot_2</t>
         </is>
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>DONE</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t>DONE</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>C:\Users\nasudre\Desktop\Robot\LOG\Robot_Sel_2.pdf</t>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>DONE</t>
+          <t>FAIL</t>
         </is>
       </c>
     </row>

--- a/LOG/Robot.xlsx
+++ b/LOG/Robot.xlsx
@@ -33,7 +33,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -50,12 +50,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="0000FF00"/>
         <bgColor rgb="0000FF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FF0000"/>
-        <bgColor rgb="00FF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -86,7 +80,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -95,7 +89,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -583,24 +576,24 @@
           <t>Robot_2</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr">
-        <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-      <c r="D5" s="4" t="inlineStr">
-        <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-      <c r="E5" s="4" t="inlineStr">
-        <is>
-          <t>FAIL</t>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>DONE</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>DONE</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>C:\Users\nasudre\Desktop\Robot\LOG\Robot_2.pdf</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>DONE</t>
         </is>
       </c>
     </row>

--- a/LOG/Robot.xlsx
+++ b/LOG/Robot.xlsx
@@ -454,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -543,6 +543,60 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Robot_2</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>DONE</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>DONE</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>C:\Users\nasudre\Desktop\Robot\LOG\Robot_2.pdf</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>DONE</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Robot_Sel_2</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>DONE</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>DONE</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>C:\Users\nasudre\Desktop\Robot\LOG\Robot_Sel_2.pdf</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>DONE</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
